--- a/Hardware/Penguin Junior/bom/bom.xlsx
+++ b/Hardware/Penguin Junior/bom/bom.xlsx
@@ -21,58 +21,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <x:si>
+    <x:t>https://aliexpress.ru/item/1005002580924212.html?sku_id=12000021250977671&amp;spm=a2g2w.productlist.search_results.3.ccf4590aXLnfOF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://aliexpress.ru/item/1005003227502688.html?sku_id=12000024749371684&amp;spm=a2g2w.productlist.search_results.6.ccf4590aXLnfOF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://aliexpress.ru/item/1005004454198996.html?sku_id=12000029230288584&amp;spm=a2g2w.productlist.search_results.0.ccf4590aXLnfOF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R (smd 0402)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Номинал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4k7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2u2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4u7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C (smd 0402)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Количество (на одну плату)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Номинал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100n</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://aliexpress.ru/item/1005003227502688.html?sku_id=12000024749371684&amp;spm=a2g2w.productlist.search_results.6.ccf4590aXLnfOF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://aliexpress.ru/item/1005004454198996.html?sku_id=12000029230288584&amp;spm=a2g2w.productlist.search_results.0.ccf4590aXLnfOF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://aliexpress.ru/item/1005002580924212.html?sku_id=12000021250977671&amp;spm=a2g2w.productlist.search_results.3.ccf4590aXLnfOF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1u</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2u2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10u</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4k7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4u7</x:t>
   </x:si>
   <x:si>
     <x:t>(на выбор из этих продавцов)</x:t>
@@ -834,25 +834,25 @@
   <x:dimension ref="A1:C22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C29" activeCellId="0" sqref="C29:C29"/>
+      <x:selection activeCell="B24" activeCellId="0" sqref="B24:B24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="12.625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="27.125" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="28" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -860,7 +860,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>19</x:v>
@@ -871,7 +871,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>2</x:v>
@@ -882,7 +882,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>2</x:v>
@@ -893,7 +893,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>2</x:v>
@@ -904,7 +904,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>2</x:v>
@@ -915,7 +915,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>1</x:v>
@@ -926,7 +926,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="1">
         <x:v>1</x:v>
@@ -934,13 +934,13 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -959,7 +959,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1">
         <x:v>9</x:v>
@@ -992,7 +992,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="1">
         <x:v>2</x:v>
@@ -1003,7 +1003,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C17" s="1">
         <x:v>1</x:v>
@@ -1011,7 +1011,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
         <x:v>18</x:v>
@@ -1022,7 +1022,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
@@ -1030,7 +1030,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
@@ -1038,7 +1038,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1047,7 +1047,7 @@
     <x:hyperlink ref="B21:B21" r:id="rId2"/>
     <x:hyperlink ref="B22:B22" r:id="rId3"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Hardware/Penguin Junior/bom/bom.xlsx
+++ b/Hardware/Penguin Junior/bom/bom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="12255" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13125" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <x:si>
+    <x:t>https://aliexpress.ru/item/1005004454198996.html?sku_id=12000029230288584&amp;spm=a2g2w.productlist.search_results.0.ccf4590aXLnfOF</x:t>
+  </x:si>
   <x:si>
     <x:t>https://aliexpress.ru/item/1005002580924212.html?sku_id=12000021250977671&amp;spm=a2g2w.productlist.search_results.3.ccf4590aXLnfOF</x:t>
   </x:si>
@@ -27,10 +30,13 @@
     <x:t>https://aliexpress.ru/item/1005003227502688.html?sku_id=12000024749371684&amp;spm=a2g2w.productlist.search_results.6.ccf4590aXLnfOF</x:t>
   </x:si>
   <x:si>
-    <x:t>https://aliexpress.ru/item/1005004454198996.html?sku_id=12000029230288584&amp;spm=a2g2w.productlist.search_results.0.ccf4590aXLnfOF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R (smd 0402)</x:t>
+    <x:t>C (smd1210_3225Metric)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C (smd 0402_1005Metric)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R (smd 0402_1005Metric)</x:t>
   </x:si>
   <x:si>
     <x:t>100n</x:t>
@@ -42,34 +48,31 @@
     <x:t>Номинал</x:t>
   </x:si>
   <x:si>
+    <x:t>2u2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4u7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10k</x:t>
+  </x:si>
+  <x:si>
     <x:t>4k7</x:t>
   </x:si>
   <x:si>
-    <x:t>8p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2u2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10u</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4u7</x:t>
-  </x:si>
-  <x:si>
     <x:t>JP</x:t>
   </x:si>
   <x:si>
     <x:t>1u</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C (smd 0402)</x:t>
   </x:si>
   <x:si>
     <x:t>Количество (на одну плату)</x:t>
@@ -831,28 +834,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C22"/>
+  <x:dimension ref="A1:C23"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B24" activeCellId="0" sqref="B24:B24"/>
+      <x:selection activeCell="N29" activeCellId="0" sqref="N29:N29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="27.125" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="28" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -860,7 +863,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>19</x:v>
@@ -882,7 +885,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>2</x:v>
@@ -893,7 +896,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>2</x:v>
@@ -915,139 +918,145 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C10" s="1">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" customFormat="1">
+      <x:c r="A12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C8" s="1">
+      <x:c r="B12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" customFormat="1">
+      <x:c r="A13">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="1" t="s">
+      <x:c r="B13" s="2">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" customFormat="1">
+      <x:c r="A14">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3" customFormat="1">
+      <x:c r="A15">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B15" s="2">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" customFormat="1">
+      <x:c r="A16">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B16" s="2">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3" customFormat="1">
+      <x:c r="A17">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3" customFormat="1">
+      <x:c r="A18">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="1">
+      <x:c r="B18" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C18">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B12" s="2">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="C12" s="1">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="1">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="1">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B14" s="2">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="C14" s="1">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B15" s="2">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C15" s="1">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="1">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C16" s="1">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="1">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C17" s="1">
+    </x:row>
+    <x:row r="19" customFormat="1"/>
+    <x:row r="20" spans="1:2" customFormat="1">
+      <x:c r="A20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2" customFormat="1">
+      <x:c r="A21">
         <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="1">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="1">
-        <x:v>3</x:v>
+    <x:row r="22" spans="1:2" customFormat="1">
+      <x:c r="A22">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
+    <x:row r="23" spans="1:2" customFormat="1">
+      <x:c r="A23">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B20:B20" r:id="rId1"/>
-    <x:hyperlink ref="B21:B21" r:id="rId2"/>
-    <x:hyperlink ref="B22:B22" r:id="rId3"/>
+    <x:hyperlink ref="B21:B21" r:id="rId1"/>
+    <x:hyperlink ref="B22:B22" r:id="rId2"/>
+    <x:hyperlink ref="B23:B23" r:id="rId3"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>